--- a/results/013-ms1-pathways-Septin-oligomerisation.xlsx
+++ b/results/013-ms1-pathways-Septin-oligomerisation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">MGG_02875T0 [664-676]|[R].SSNRNSQTVVLLK.[E]|2xPhospho [S2(85.7); T8(97.5)]|S665; T671</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_02875T0 [664-676]|[R].SSNRNSQTVVLLK.[E]|2xPhospho [S6(98.8); S/T]|T671; S</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_02875T0 [1129-1144]|[R].SRASPRGETPDTAAAR.[V]|1xPhospho [T9(96.3)]|T1137</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">MGG_03087T0 [361-383]|[R].MQREAASSVGPRDGSEANGEDGN.[-]|1xOxidation [M1];1xPhospho [S15(99.9)]|S375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGG_03087T0 [361-383]|[R].MQREAASSVGPRDGSEANGEDGN.[-]|1xOxidation [M1];2xPhospho [S15(96.6); S]|S375; S</t>
   </si>
   <si>
     <t xml:space="preserve">MGG_03087T0 [361-383]|[R].MQREAASSVGPRDGSEANGEDGN.[-]|1xOxidation [M1];2xPhospho [S7(99.3); S15(100)]|S367; S375</t>
@@ -1512,34 +1506,34 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.487400216396873</v>
       </c>
       <c r="E25" t="n">
-        <v>0.47489578622403</v>
+        <v>0.530194879368785</v>
       </c>
       <c r="F25" t="n">
-        <v>0.494097316983905</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.60853626975578</v>
+        <v>0.844843574702431</v>
       </c>
       <c r="H25" t="n">
-        <v>0.706507192000377</v>
+        <v>0.577118072012683</v>
       </c>
       <c r="I25" t="n">
-        <v>0.384647963909606</v>
+        <v>0.433815508740497</v>
       </c>
       <c r="J25" t="n">
-        <v>0.320322990524392</v>
+        <v>0.36879612899394</v>
       </c>
       <c r="K25" t="n">
-        <v>0.313385098374747</v>
+        <v>0.241062966389744</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.296873047116373</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.136591539333956</v>
       </c>
     </row>
     <row r="26">
@@ -1550,37 +1544,37 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.248413073175473</v>
       </c>
       <c r="D26" t="n">
-        <v>0.487400216396873</v>
+        <v>0.351269857205563</v>
       </c>
       <c r="E26" t="n">
-        <v>0.530194879368785</v>
+        <v>0.249034270318476</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.129175798238646</v>
       </c>
       <c r="G26" t="n">
-        <v>0.844843574702431</v>
+        <v>0.222608803178857</v>
       </c>
       <c r="H26" t="n">
-        <v>0.577118072012683</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.433815508740497</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.36879612899394</v>
+        <v>0.651263479963418</v>
       </c>
       <c r="K26" t="n">
-        <v>0.241062966389744</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.296873047116373</v>
+        <v>0.624155079212699</v>
       </c>
       <c r="M26" t="n">
-        <v>0.136591539333956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1632,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248413073175473</v>
+        <v>0.235968689979153</v>
       </c>
       <c r="D28" t="n">
-        <v>0.351269857205563</v>
+        <v>0.333672809463656</v>
       </c>
       <c r="E28" t="n">
-        <v>0.249034270318476</v>
+        <v>0.236558767925452</v>
       </c>
       <c r="F28" t="n">
-        <v>0.129175798238646</v>
+        <v>0.122704668871647</v>
       </c>
       <c r="G28" t="n">
-        <v>0.222608803178857</v>
+        <v>0.211457098422662</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1653,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.651263479963418</v>
+        <v>0.649900248251887</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0.624155079212699</v>
+        <v>0.592887703142818</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1673,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235968689979153</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.333672809463656</v>
+        <v>0.319997677386058</v>
       </c>
       <c r="E29" t="n">
-        <v>0.236558767925452</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.122704668871647</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.211457098422662</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1694,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.649900248251887</v>
+        <v>0.573012726985543</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.807167290076881</v>
       </c>
       <c r="L29" t="n">
-        <v>0.592887703142818</v>
+        <v>0.974963714400709</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1758,34 +1752,34 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319997677386058</v>
+        <v>0.355686410111262</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.521617663504386</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.813506650374751</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.505354910772697</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.769487225822063</v>
       </c>
       <c r="J31" t="n">
-        <v>0.573012726985543</v>
+        <v>0.504586239128325</v>
       </c>
       <c r="K31" t="n">
-        <v>0.807167290076881</v>
+        <v>0.302050703638361</v>
       </c>
       <c r="L31" t="n">
-        <v>0.974963714400709</v>
+        <v>0.655093953486898</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.884901383964634</v>
       </c>
     </row>
     <row r="32">
@@ -1799,34 +1793,34 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319997677386058</v>
+        <v>0.701961084120849</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0.677375033330233</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.999067537568792</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.414404121527977</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.745112634891097</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.573012726985543</v>
+        <v>0.586401622087073</v>
       </c>
       <c r="K32" t="n">
-        <v>0.807167290076881</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.974963714400709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.846043622324703</v>
       </c>
     </row>
     <row r="33">
@@ -1840,34 +1834,34 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.355686410111262</v>
+        <v>0.913243753011511</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0.882809879959277</v>
       </c>
       <c r="F33" t="n">
-        <v>0.521617663504386</v>
+        <v>0.653951968182244</v>
       </c>
       <c r="G33" t="n">
-        <v>0.813506650374751</v>
+        <v>0.601383092188126</v>
       </c>
       <c r="H33" t="n">
-        <v>0.505354910772697</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.769487225822063</v>
+        <v>0.730484305340858</v>
       </c>
       <c r="J33" t="n">
-        <v>0.504586239128325</v>
+        <v>0.744190065868553</v>
       </c>
       <c r="K33" t="n">
-        <v>0.302050703638361</v>
+        <v>0.304974728377808</v>
       </c>
       <c r="L33" t="n">
-        <v>0.655093953486898</v>
+        <v>0.496449193253399</v>
       </c>
       <c r="M33" t="n">
-        <v>0.884901383964634</v>
+        <v>0.413145887265376</v>
       </c>
     </row>
     <row r="34">
@@ -1881,34 +1875,34 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.701961084120849</v>
+        <v>0.913243753011511</v>
       </c>
       <c r="E34" t="n">
-        <v>0.677375033330233</v>
+        <v>0.882809879959277</v>
       </c>
       <c r="F34" t="n">
-        <v>0.999067537568792</v>
+        <v>0.653951968182244</v>
       </c>
       <c r="G34" t="n">
-        <v>0.414404121527977</v>
+        <v>0.601383092188126</v>
       </c>
       <c r="H34" t="n">
-        <v>0.745112634891097</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0.730484305340858</v>
       </c>
       <c r="J34" t="n">
-        <v>0.586401622087073</v>
+        <v>0.744190065868553</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.304974728377808</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.496449193253399</v>
       </c>
       <c r="M34" t="n">
-        <v>0.846043622324703</v>
+        <v>0.413145887265376</v>
       </c>
     </row>
     <row r="35">
@@ -1922,34 +1916,34 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.913243753011511</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.882809879959277</v>
+        <v>0.324096474854878</v>
       </c>
       <c r="F35" t="n">
-        <v>0.653951968182244</v>
+        <v>0.695553862754033</v>
       </c>
       <c r="G35" t="n">
-        <v>0.601383092188126</v>
+        <v>0.756216175366256</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.710474731656984</v>
       </c>
       <c r="I35" t="n">
-        <v>0.730484305340858</v>
+        <v>0.81821255652509</v>
       </c>
       <c r="J35" t="n">
-        <v>0.744190065868553</v>
+        <v>0.36878779567566</v>
       </c>
       <c r="K35" t="n">
-        <v>0.304974728377808</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.496449193253399</v>
+        <v>0.370687815204648</v>
       </c>
       <c r="M35" t="n">
-        <v>0.413145887265376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1963,34 +1957,34 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.913243753011511</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.882809879959277</v>
+        <v>0.618040124771102</v>
       </c>
       <c r="F36" t="n">
-        <v>0.653951968182244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.601383092188126</v>
+        <v>0.847327284220317</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.455442058812344</v>
       </c>
       <c r="I36" t="n">
-        <v>0.730484305340858</v>
+        <v>0.785469452185155</v>
       </c>
       <c r="J36" t="n">
-        <v>0.744190065868553</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.304974728377808</v>
+        <v>0.311714909959205</v>
       </c>
       <c r="L36" t="n">
-        <v>0.496449193253399</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.413145887265376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2004,31 +1998,31 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.329679213913877</v>
       </c>
       <c r="E37" t="n">
-        <v>0.324096474854878</v>
+        <v>0.255594152735397</v>
       </c>
       <c r="F37" t="n">
-        <v>0.695553862754033</v>
+        <v>0.242654565476931</v>
       </c>
       <c r="G37" t="n">
-        <v>0.756216175366256</v>
+        <v>0.202267876566558</v>
       </c>
       <c r="H37" t="n">
-        <v>0.710474731656984</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.81821255652509</v>
+        <v>0.246926475405864</v>
       </c>
       <c r="J37" t="n">
-        <v>0.36878779567566</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.370687815204648</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -2045,28 +2039,28 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.329679213913877</v>
       </c>
       <c r="E38" t="n">
-        <v>0.618040124771102</v>
+        <v>0.255594152735397</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.242654565476931</v>
       </c>
       <c r="G38" t="n">
-        <v>0.847327284220317</v>
+        <v>0.202267876566558</v>
       </c>
       <c r="H38" t="n">
-        <v>0.455442058812344</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.785469452185155</v>
+        <v>0.246926475405864</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.311714909959205</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2086,34 +2080,34 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.329679213913877</v>
+        <v>0.4134795479737</v>
       </c>
       <c r="E39" t="n">
-        <v>0.255594152735397</v>
+        <v>0.356127109769098</v>
       </c>
       <c r="F39" t="n">
-        <v>0.242654565476931</v>
+        <v>0.295491422004299</v>
       </c>
       <c r="G39" t="n">
-        <v>0.202267876566558</v>
+        <v>0.305624246723554</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.262239739814878</v>
       </c>
       <c r="I39" t="n">
-        <v>0.246926475405864</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.237712097221071</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.524609254030787</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0.438255687574711</v>
       </c>
     </row>
     <row r="40">
@@ -2127,34 +2121,34 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.329679213913877</v>
+        <v>0.61132040558569</v>
       </c>
       <c r="E40" t="n">
-        <v>0.255594152735397</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.242654565476931</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.202267876566558</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.54178144383347</v>
       </c>
       <c r="I40" t="n">
-        <v>0.246926475405864</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.384301983355485</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0.331999662292481</v>
       </c>
     </row>
     <row r="41">
@@ -2209,34 +2203,34 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.61132040558569</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.482773797854355</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.400574716501906</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.414310998123035</v>
       </c>
       <c r="H42" t="n">
-        <v>0.54178144383347</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.723270781307478</v>
       </c>
       <c r="K42" t="n">
-        <v>0.384301983355485</v>
+        <v>0.184015008899213</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.711171924322735</v>
       </c>
       <c r="M42" t="n">
-        <v>0.331999662292481</v>
+        <v>0.36472845130923</v>
       </c>
     </row>
     <row r="43">
@@ -2250,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4134795479737</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.356127109769098</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.295491422004299</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.305624246723554</v>
+        <v>0.789828843731842</v>
       </c>
       <c r="H43" t="n">
-        <v>0.262239739814878</v>
+        <v>0.651918517461134</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2271,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.237712097221071</v>
+        <v>0.773933171485781</v>
       </c>
       <c r="L43" t="n">
-        <v>0.524609254030787</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.438255687574711</v>
+        <v>0.399098702735745</v>
       </c>
     </row>
     <row r="44">
@@ -2291,115 +2285,33 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.482773797854355</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.400574716501906</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.414310998123035</v>
+        <v>0.86416173859929</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.723270781307478</v>
+        <v>0.931949181805868</v>
       </c>
       <c r="K44" t="n">
-        <v>0.184015008899213</v>
+        <v>0.8467700823267</v>
       </c>
       <c r="L44" t="n">
-        <v>0.711171924322735</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.36472845130923</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.789828843731842</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.651918517461134</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.773933171485781</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.399098702735745</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.86416173859929</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.931949181805868</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.8467700823267</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
         <v>0.34718391450907</v>
       </c>
     </row>
